--- a/.temp/DirectorioEntidadesCuencaRioBogota.xlsx
+++ b/.temp/DirectorioEntidadesCuencaRioBogota.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\.temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F25275-4272-423F-98E8-6D23BB2FF3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947FBF8A-1FB2-4A27-8C40-BB5442269F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="15540" windowHeight="16656" xr2:uid="{AB091F96-0D89-4FB2-B6C3-4D42051ABEF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8447" uniqueCount="2858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8437" uniqueCount="2863">
   <si>
     <t>alcalde@aguadedios-cundinamarca.gov.co</t>
   </si>
@@ -8610,6 +8610,21 @@
   </si>
   <si>
     <t>Instituto Distrital de Gestión de Riesgos y Cambio Climático - IDIGER</t>
+  </si>
+  <si>
+    <t>idiger@idiger.gov.co</t>
+  </si>
+  <si>
+    <t>sire@idiger.gov.co</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Unidad Nacional para la Gestión del Riesgo de Desastres - UNGRD</t>
+  </si>
+  <si>
+    <t>correspondencia@gestiondelriesgo.gov.co</t>
   </si>
 </sst>
 </file>
@@ -9013,13 +9028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5330150-B57A-4792-9F72-402B3A849B37}">
-  <dimension ref="A1:E2734"/>
+  <dimension ref="A1:E2730"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2719" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2725" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2729" sqref="B2729:B2734"/>
+      <selection pane="bottomRight" activeCell="B2734" sqref="B2734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -39771,6 +39786,9 @@
       <c r="B2728" s="2" t="s">
         <v>2857</v>
       </c>
+      <c r="D2728" s="3" t="s">
+        <v>2858</v>
+      </c>
       <c r="E2728" s="2" t="s">
         <v>2748</v>
       </c>
@@ -39782,63 +39800,22 @@
       <c r="B2729" s="2" t="s">
         <v>2857</v>
       </c>
+      <c r="D2729" s="3" t="s">
+        <v>2859</v>
+      </c>
       <c r="E2729" s="2" t="s">
         <v>2748</v>
       </c>
     </row>
     <row r="2730" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A2730" s="2" t="s">
-        <v>2733</v>
+        <v>2860</v>
       </c>
       <c r="B2730" s="2" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E2730" s="2" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="2731" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A2731" s="2" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B2731" s="2" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E2731" s="2" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="2732" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A2732" s="2" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B2732" s="2" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E2732" s="2" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="2733" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A2733" s="2" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B2733" s="2" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E2733" s="2" t="s">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="2734" spans="1:5" ht="33.6" x14ac:dyDescent="0.3">
-      <c r="A2734" s="2" t="s">
-        <v>2733</v>
-      </c>
-      <c r="B2734" s="2" t="s">
-        <v>2857</v>
-      </c>
-      <c r="E2734" s="2" t="s">
-        <v>2748</v>
+        <v>2861</v>
+      </c>
+      <c r="D2730" s="3" t="s">
+        <v>2862</v>
       </c>
     </row>
   </sheetData>
@@ -39926,8 +39903,11 @@
     <hyperlink ref="D2725" r:id="rId81" xr:uid="{325C5C1A-6708-4665-9D56-7B7BA24A2534}"/>
     <hyperlink ref="D2726" r:id="rId82" xr:uid="{203A285B-A414-4539-A699-26F1AEB1B2D5}"/>
     <hyperlink ref="D2727" r:id="rId83" xr:uid="{2200BEED-0719-4FF6-AE78-C73CB663B72C}"/>
+    <hyperlink ref="D2728" r:id="rId84" xr:uid="{EFD79914-C194-40E2-B978-B261E07C7518}"/>
+    <hyperlink ref="D2729" r:id="rId85" xr:uid="{6FFD476F-B2AA-46F2-B96A-FEA5B85ED9F7}"/>
+    <hyperlink ref="D2730" r:id="rId86" xr:uid="{5CB0314F-F38D-4966-955E-CC73D1B3532D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>